--- a/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
+++ b/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TOMCO2-main\TOMCO5\000.커리큐럼\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -14,18 +19,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'웹디자인(자바스크립트-jQuery) 훈련과정'!$A$1:$J$18</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>비고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인구현 : 레이아웃 + 상세코딩</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -111,78 +112,87 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>자바스크립트기본</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹디자인(자바스크립트-jQuery) 훈련과정 : 2022년 8월2일 개강반</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합연습2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제이쿼리 실전연습1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제이쿼리 실전연습2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 기능구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바스크립트응용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바스크립트기본</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바스크립트기본</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제어문, 제어문 연습 : if문</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제이쿼리기초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>제이쿼리응용</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>제이쿼리응용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바스크립트응용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바스크립트기본</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바스크립트응용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹디자인(자바스크립트-jQuery) 훈련과정 : 2022년 8월2일 개강반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">변수와 연산자, 제어문 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>종합연습2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제어문, 제어문 연습</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>배열과 객체, 배열 메서드, 객체연습</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>롤링갤러리, 사이트 기능구현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이트 기능구현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택자연습, 메서드 연습</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니언즈로 선택자, 메서드 총정리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제이쿼리 실전연습1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제이쿼리 실전연습2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이트 기능구현</t>
+    <t>변수와 연산자 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수와 연산자 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제어문, 제어문 연습 : switch문, for문, while문 / 바.렛.콘스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>for문연습,옵션 / 배열과 객체</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자,숫자가공 / DOM 정리 및 실전연습
+미니언즈로 선택자, 메서드 연습</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 객체연습 / 함수 / Date객체와 Math객체</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 메서드 / for of문,for in문</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="#\ &quot;시간&quot;"/>
@@ -254,7 +264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,18 +291,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -551,6 +567,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -566,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -594,25 +640,7 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -627,71 +655,98 @@
     <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -756,7 +811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -791,7 +846,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1005,8 +1060,8 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1025,365 +1080,365 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:10" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
+      <c r="B2" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>3</v>
-      </c>
       <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="G4" s="42"/>
+      <c r="H4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11">
         <v>44775</v>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="12" t="str">
         <f>CHOOSE(WEEKDAY(C5,1),"일","월","화","수","목","금","토")</f>
         <v>화</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="13">
         <v>3</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="36" t="s">
+      <c r="F5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="13"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11">
         <v>44777</v>
       </c>
-      <c r="D6" s="11" t="str">
+      <c r="D6" s="12" t="str">
         <f>CHOOSE(WEEKDAY(C6,1),"일","월","화","수","목","금","토")</f>
         <v>목</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="13">
         <v>3</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="14"/>
+      <c r="F6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="17">
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11">
         <v>44782</v>
       </c>
-      <c r="D7" s="18" t="str">
+      <c r="D7" s="12" t="str">
         <f t="shared" ref="D7:D17" si="0">CHOOSE(WEEKDAY(C7,1),"일","월","화","수","목","금","토")</f>
         <v>화</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="13">
         <v>3</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="20"/>
+      <c r="F7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11">
         <v>44784</v>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="13">
         <v>3</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="20"/>
+      <c r="F8" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
         <v>44785</v>
       </c>
-      <c r="D9" s="18" t="str">
+      <c r="D9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>금</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="13">
         <v>3</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="20"/>
+      <c r="F9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11">
         <v>44789</v>
       </c>
-      <c r="D10" s="11" t="str">
+      <c r="D10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="13">
         <v>3</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="14"/>
+      <c r="F10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11">
         <v>44791</v>
       </c>
-      <c r="D11" s="11" t="str">
+      <c r="D11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="13">
         <v>3</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="14"/>
+      <c r="F11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="17">
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11">
         <v>44796</v>
       </c>
-      <c r="D12" s="18" t="str">
+      <c r="D12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="13">
         <v>3</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="20"/>
+      <c r="F12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="B13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="17">
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="11">
         <v>44798</v>
       </c>
-      <c r="D13" s="18" t="str">
+      <c r="D13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="13">
         <v>3</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="21"/>
+      <c r="F13" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="B14" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="17">
+      <c r="B14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
         <v>44799</v>
       </c>
-      <c r="D14" s="18" t="str">
+      <c r="D14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>금</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="13">
         <v>3</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="21"/>
+      <c r="F14" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:10" ht="51" customHeight="1">
-      <c r="B15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11">
         <v>44803</v>
       </c>
-      <c r="D15" s="11" t="str">
+      <c r="D15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="13">
         <v>3</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="15"/>
+      <c r="F15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:10" ht="51" customHeight="1">
-      <c r="B16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="17">
         <v>44805</v>
       </c>
-      <c r="D16" s="11" t="str">
+      <c r="D16" s="18" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="19">
         <v>3</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="14"/>
+      <c r="F16" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="34"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="2:10" ht="51" customHeight="1" thickBot="1">
-      <c r="B17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="17">
+      <c r="B17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="21">
         <v>44810</v>
       </c>
-      <c r="D17" s="18" t="str">
+      <c r="D17" s="22" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="23">
         <v>3</v>
       </c>
-      <c r="F17" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="22"/>
+      <c r="F17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="32"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="2:10" ht="44.25" customHeight="1" thickBot="1">
       <c r="E18" s="8">
@@ -1393,22 +1448,8 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="F4:G4"/>
@@ -1421,8 +1462,22 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
